--- a/data/case1/13/P_device_14.xlsx
+++ b/data/case1/13/P_device_14.xlsx
@@ -56,40 +56,40 @@
   <dimension ref="A1:B5"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="true"/>
-    <col min="2" max="2" width="15.7109375" customWidth="true"/>
+    <col min="1" max="1" width="14.42578125" customWidth="true"/>
+    <col min="2" max="2" width="14.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.037685637252432527</v>
+        <v>-0.036093149507682783</v>
       </c>
       <c r="B1" s="0">
-        <v>0.037685636958649557</v>
+        <v>0.036093148796240378</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.00017145526420297771</v>
+        <v>0.015304657173543283</v>
       </c>
       <c r="B2" s="0">
-        <v>0.00017145497177090851</v>
+        <v>-0.015304657916298717</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.020693263072366939</v>
+        <v>0.014685455106506441</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.020693263384405781</v>
+        <v>-0.014685455820034303</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.041882254339463396</v>
+        <v>-0.053678655900885358</v>
       </c>
       <c r="B4" s="0">
-        <v>0.041882254041365835</v>
+        <v>0.053678655182271995</v>
       </c>
     </row>
     <row r="5">
